--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>90.8178001496325</v>
+        <v>420.820410822642</v>
       </c>
       <c r="R2">
-        <v>363.27120059853</v>
+        <v>1683.281643290568</v>
       </c>
       <c r="S2">
-        <v>7.331295060583312E-05</v>
+        <v>0.0002181467658910957</v>
       </c>
       <c r="T2">
-        <v>3.464047339955064E-05</v>
+        <v>0.0001045477798223036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>352.9581188386815</v>
+        <v>1191.537522654943</v>
       </c>
       <c r="R3">
-        <v>2117.748713032089</v>
+        <v>7149.225135929659</v>
       </c>
       <c r="S3">
-        <v>0.0002849265352135128</v>
+        <v>0.0006176745479073576</v>
       </c>
       <c r="T3">
-        <v>0.0002019422895067161</v>
+        <v>0.0004440347926269344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>485.7876615144734</v>
+        <v>1217.723841142619</v>
       </c>
       <c r="R4">
-        <v>2914.72596908684</v>
+        <v>7306.343046855714</v>
       </c>
       <c r="S4">
-        <v>0.0003921535951636667</v>
+        <v>0.0006312491287541224</v>
       </c>
       <c r="T4">
-        <v>0.0002779396969337975</v>
+        <v>0.0004537933073847657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>155.762895521889</v>
+        <v>649.8172784243341</v>
       </c>
       <c r="R5">
-        <v>623.051582087556</v>
+        <v>2599.269113697336</v>
       </c>
       <c r="S5">
-        <v>0.0001257400801032726</v>
+        <v>0.000336855185876823</v>
       </c>
       <c r="T5">
-        <v>5.941236662937178E-05</v>
+        <v>0.0001614393028527991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>71.04550873854599</v>
+        <v>643.5840350999678</v>
       </c>
       <c r="R6">
-        <v>426.273052431276</v>
+        <v>3861.504210599806</v>
       </c>
       <c r="S6">
-        <v>5.735170709193163E-05</v>
+        <v>0.0003336239693358653</v>
       </c>
       <c r="T6">
-        <v>4.064814471767026E-05</v>
+        <v>0.0002398360925528124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>480.7380634241205</v>
+        <v>1530.963392926056</v>
       </c>
       <c r="R7">
-        <v>2884.428380544723</v>
+        <v>9185.780357556334</v>
       </c>
       <c r="S7">
-        <v>0.000388077291457043</v>
+        <v>0.0007936276479831534</v>
       </c>
       <c r="T7">
-        <v>0.0002750506079880331</v>
+        <v>0.000570524217468737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>476.3588820378034</v>
+        <v>653.8461009841561</v>
       </c>
       <c r="R8">
-        <v>2858.15329222682</v>
+        <v>3923.076605904937</v>
       </c>
       <c r="S8">
-        <v>0.0003845421837123049</v>
+        <v>0.0003389436649267251</v>
       </c>
       <c r="T8">
-        <v>0.0002725450928344852</v>
+        <v>0.0002436603231877457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>1851.341197641207</v>
@@ -1013,10 +1013,10 @@
         <v>16662.07077877087</v>
       </c>
       <c r="S9">
-        <v>0.001494500918912238</v>
+        <v>0.0009597065266793552</v>
       </c>
       <c r="T9">
-        <v>0.00158884607049078</v>
+        <v>0.001034872871159728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>2548.06069917484</v>
+        <v>1892.027965207508</v>
       </c>
       <c r="R10">
-        <v>22932.54629257355</v>
+        <v>17028.25168686758</v>
       </c>
       <c r="S10">
-        <v>0.002056929895587496</v>
+        <v>0.00098079791514552</v>
       </c>
       <c r="T10">
-        <v>0.00218678017559059</v>
+        <v>0.001057616183966246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>817.0098664747107</v>
+        <v>1009.648018306212</v>
       </c>
       <c r="R11">
-        <v>4902.059198848264</v>
+        <v>6057.888109837273</v>
       </c>
       <c r="S11">
-        <v>0.000659533746541439</v>
+        <v>0.0005233858534839</v>
       </c>
       <c r="T11">
-        <v>0.0004674459494750627</v>
+        <v>0.0003762523965135948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>372.6489637575493</v>
+        <v>999.9631699972737</v>
       </c>
       <c r="R12">
-        <v>3353.840673817944</v>
+        <v>8999.668529975463</v>
       </c>
       <c r="S12">
-        <v>0.0003008220307941765</v>
+        <v>0.0005183653785202196</v>
       </c>
       <c r="T12">
-        <v>0.0003198123838506994</v>
+        <v>0.0005589649050685763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>2521.574471837274</v>
+        <v>2378.721229935924</v>
       </c>
       <c r="R13">
-        <v>22694.17024653546</v>
+        <v>21408.49106942332</v>
       </c>
       <c r="S13">
-        <v>0.002035548806491145</v>
+        <v>0.0012330921455369</v>
       </c>
       <c r="T13">
-        <v>0.002164049336844586</v>
+        <v>0.00132967065824971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>50281.36013413761</v>
+        <v>18877.03161817068</v>
       </c>
       <c r="R14">
-        <v>301688.1608048257</v>
+        <v>113262.1897090241</v>
       </c>
       <c r="S14">
-        <v>0.04058978378505741</v>
+        <v>0.009785560042294236</v>
       </c>
       <c r="T14">
-        <v>0.02876809582510353</v>
+        <v>0.007034657877420332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>195415.5931585544</v>
+        <v>53449.62105194522</v>
       </c>
       <c r="R15">
-        <v>1758740.338426989</v>
+        <v>481046.589467507</v>
       </c>
       <c r="S15">
-        <v>0.1577498431501113</v>
+        <v>0.02770745351394234</v>
       </c>
       <c r="T15">
-        <v>0.1677083066579965</v>
+        <v>0.02987756274796941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>268956.7939003709</v>
+        <v>54624.27881412226</v>
       </c>
       <c r="R16">
-        <v>2420611.145103338</v>
+        <v>491618.5093271003</v>
       </c>
       <c r="S16">
-        <v>0.2171162053455764</v>
+        <v>0.02831637785615014</v>
       </c>
       <c r="T16">
-        <v>0.2308223603865484</v>
+        <v>0.03053417939568569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>86238.27302982566</v>
+        <v>29149.30216162836</v>
       </c>
       <c r="R17">
-        <v>517429.638178954</v>
+        <v>174895.8129697702</v>
       </c>
       <c r="S17">
-        <v>0.0696161131468845</v>
+        <v>0.01511054557004728</v>
       </c>
       <c r="T17">
-        <v>0.04934056866590404</v>
+        <v>0.01086269135001194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>39334.41247101498</v>
+        <v>28869.69326364788</v>
       </c>
       <c r="R18">
-        <v>354009.7122391349</v>
+        <v>259827.2393728309</v>
       </c>
       <c r="S18">
-        <v>0.03175282636053432</v>
+        <v>0.01496560065948656</v>
       </c>
       <c r="T18">
-        <v>0.03375732510531404</v>
+        <v>0.01613773970747128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>266161.0791870067</v>
+        <v>68675.48158615139</v>
       </c>
       <c r="R19">
-        <v>2395449.712683061</v>
+        <v>618079.3342753624</v>
       </c>
       <c r="S19">
-        <v>0.2148593559795802</v>
+        <v>0.03560030316672643</v>
       </c>
       <c r="T19">
-        <v>0.2284230401844153</v>
+        <v>0.03838859789750711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>1900.290056702975</v>
+        <v>3955.038486150951</v>
       </c>
       <c r="R20">
-        <v>7601.1602268119</v>
+        <v>15820.15394460381</v>
       </c>
       <c r="S20">
-        <v>0.001534015037077341</v>
+        <v>0.002050230531931755</v>
       </c>
       <c r="T20">
-        <v>0.0007248242861222438</v>
+        <v>0.0009825818382490849</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>7385.367213879245</v>
+        <v>11198.54607475162</v>
       </c>
       <c r="R21">
-        <v>44312.20328327547</v>
+        <v>67191.2764485097</v>
       </c>
       <c r="S21">
-        <v>0.005961860569899077</v>
+        <v>0.005805152378692675</v>
       </c>
       <c r="T21">
-        <v>0.004225481394012813</v>
+        <v>0.004173216528629205</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>10164.7194858714</v>
+        <v>11444.65556651059</v>
       </c>
       <c r="R22">
-        <v>60988.31691522842</v>
+        <v>68667.93339906356</v>
       </c>
       <c r="S22">
-        <v>0.008205501304392201</v>
+        <v>0.005932731717293125</v>
       </c>
       <c r="T22">
-        <v>0.005815666549686526</v>
+        <v>0.004264930952270032</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>3259.21439492947</v>
+        <v>6107.242612377177</v>
       </c>
       <c r="R23">
-        <v>13036.85757971788</v>
+        <v>24428.97044950871</v>
       </c>
       <c r="S23">
-        <v>0.00263101092027774</v>
+        <v>0.003165899728575345</v>
       </c>
       <c r="T23">
-        <v>0.001243156400672228</v>
+        <v>0.001517271119792</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>1486.57062389558</v>
+        <v>6048.6600992495</v>
       </c>
       <c r="R24">
-        <v>8919.42374337348</v>
+        <v>36291.960595497</v>
       </c>
       <c r="S24">
-        <v>0.001200038742869508</v>
+        <v>0.003135531463519966</v>
       </c>
       <c r="T24">
-        <v>0.000850530018379056</v>
+        <v>0.002254075496386065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>10059.06067200855</v>
+        <v>14388.60612315386</v>
       </c>
       <c r="R25">
-        <v>60354.36403205129</v>
+        <v>86331.63673892317</v>
       </c>
       <c r="S25">
-        <v>0.00812020789947559</v>
+        <v>0.007458829968135064</v>
       </c>
       <c r="T25">
-        <v>0.005755214667043246</v>
+        <v>0.005362014720148653</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>139.30385849303</v>
+        <v>15428.86658209256</v>
       </c>
       <c r="R26">
-        <v>835.82315095818</v>
+        <v>92573.19949255539</v>
       </c>
       <c r="S26">
-        <v>0.0001124534714568596</v>
+        <v>0.007998084835450675</v>
       </c>
       <c r="T26">
-        <v>7.970163772903443E-05</v>
+        <v>0.005749675056798085</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>541.3963755966259</v>
+        <v>43686.268516924</v>
       </c>
       <c r="R27">
-        <v>4872.567380369634</v>
+        <v>393176.416652316</v>
       </c>
       <c r="S27">
-        <v>0.0004370439019321823</v>
+        <v>0.02264628317858247</v>
       </c>
       <c r="T27">
-        <v>0.0004646336963929847</v>
+        <v>0.02441999032267292</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>745.1413219189939</v>
+        <v>44646.35791333119</v>
       </c>
       <c r="R28">
-        <v>6706.271897270945</v>
+        <v>401817.2212199807</v>
       </c>
       <c r="S28">
-        <v>0.0006015176412355927</v>
+        <v>0.0231439786120885</v>
       </c>
       <c r="T28">
-        <v>0.000639490366659438</v>
+        <v>0.02495666636677318</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>238.922021018956</v>
+        <v>23824.75714984523</v>
       </c>
       <c r="R29">
-        <v>1433.532126113736</v>
+        <v>142948.5428990714</v>
       </c>
       <c r="S29">
-        <v>0.0001928705418623754</v>
+        <v>0.01235038412281274</v>
       </c>
       <c r="T29">
-        <v>0.000136697407887624</v>
+        <v>0.00887846240615804</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>108.975481453784</v>
+        <v>23596.22289354011</v>
       </c>
       <c r="R30">
-        <v>980.7793330840559</v>
+        <v>212366.006041861</v>
       </c>
       <c r="S30">
-        <v>8.797079510740029E-05</v>
+        <v>0.01223191551333909</v>
       </c>
       <c r="T30">
-        <v>9.352423297676832E-05</v>
+        <v>0.0131899462754219</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>737.3958304331154</v>
+        <v>56130.90364449819</v>
       </c>
       <c r="R31">
-        <v>6636.562473898039</v>
+        <v>505178.1328004837</v>
       </c>
       <c r="S31">
-        <v>0.0005952650692311339</v>
+        <v>0.02909738877127006</v>
       </c>
       <c r="T31">
-        <v>0.0006328430810445349</v>
+        <v>0.03137636081851483</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>15831.90599735854</v>
+        <v>104231.4265448725</v>
       </c>
       <c r="R32">
-        <v>94991.43598415121</v>
+        <v>625388.5592692352</v>
       </c>
       <c r="S32">
-        <v>0.01278035517781958</v>
+        <v>0.0540319528716069</v>
       </c>
       <c r="T32">
-        <v>0.009058103989450748</v>
+        <v>0.03884257020117773</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>61529.7854523194</v>
+        <v>295127.4524096487</v>
       </c>
       <c r="R33">
-        <v>553768.0690708746</v>
+        <v>2656147.071686838</v>
       </c>
       <c r="S33">
-        <v>0.04967010998087532</v>
+        <v>0.1529894881833025</v>
       </c>
       <c r="T33">
-        <v>0.05280569457354274</v>
+        <v>0.1649719643371864</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>84685.4314804155</v>
+        <v>301613.4432545157</v>
       </c>
       <c r="R34">
-        <v>762168.8833237393</v>
+        <v>2714520.989290642</v>
       </c>
       <c r="S34">
-        <v>0.06836257699402654</v>
+        <v>0.156351725113876</v>
       </c>
       <c r="T34">
-        <v>0.07267818336614942</v>
+        <v>0.1685975391239924</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>27153.52624392878</v>
+        <v>160950.8003456155</v>
       </c>
       <c r="R35">
-        <v>162921.1574635727</v>
+        <v>965704.8020736933</v>
       </c>
       <c r="S35">
-        <v>0.02191976820640265</v>
+        <v>0.08343439543329857</v>
       </c>
       <c r="T35">
-        <v>0.01553568246544818</v>
+        <v>0.05997944160026325</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>12385.08105272275</v>
+        <v>159406.911724743</v>
       </c>
       <c r="R36">
-        <v>111465.7294745047</v>
+        <v>1434662.205522686</v>
       </c>
       <c r="S36">
-        <v>0.009997895059905575</v>
+        <v>0.0826340675478687</v>
       </c>
       <c r="T36">
-        <v>0.01062904416992398</v>
+        <v>0.08910615105928231</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>83805.15512314643</v>
+        <v>379198.5710025717</v>
       </c>
       <c r="R37">
-        <v>754246.3961083178</v>
+        <v>3412787.139023145</v>
       </c>
       <c r="S37">
-        <v>0.06765197117673499</v>
+        <v>0.1965706504896679</v>
       </c>
       <c r="T37">
-        <v>0.07192271828333546</v>
+        <v>0.2119664999693641</v>
       </c>
     </row>
   </sheetData>
